--- a/PM1MKT.xlsx
+++ b/PM1MKT.xlsx
@@ -11,15 +11,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="31">
   <si>
     <t/>
   </si>
   <si>
-    <t>20055311</t>
-  </si>
-  <si>
-    <t>NABATI RCHSE WFR 110</t>
+    <t>10036957</t>
+  </si>
+  <si>
+    <t>HAPPYTOS CHIP HJU140</t>
   </si>
   <si>
     <t>PM1MKT</t>
@@ -43,10 +43,10 @@
     <t>RT,(E-3B)</t>
   </si>
   <si>
-    <t>20035484</t>
-  </si>
-  <si>
-    <t>PUCUK/H TEH MLATI350</t>
+    <t>20040383</t>
+  </si>
+  <si>
+    <t>NU MILK TEA 330ML</t>
   </si>
   <si>
     <t>3</t>
@@ -55,58 +55,55 @@
     <t>RT,(E-1B)</t>
   </si>
   <si>
-    <t>20138150</t>
-  </si>
-  <si>
-    <t>CMORY EAT MLK CHO 80</t>
+    <t>10036916</t>
+  </si>
+  <si>
+    <t>GLICO POCKY.STRAW 45</t>
+  </si>
+  <si>
+    <t>10008819</t>
+  </si>
+  <si>
+    <t>BANGO KECAP MNS 700G</t>
+  </si>
+  <si>
+    <t>RT,(E-0.5B)</t>
+  </si>
+  <si>
+    <t>20138899</t>
+  </si>
+  <si>
+    <t>SNSLK SHP G.BLCK 160</t>
+  </si>
+  <si>
+    <t>PT,(E-3B)</t>
+  </si>
+  <si>
+    <t>20047217</t>
+  </si>
+  <si>
+    <t>PEPSODENT WHITE 225G</t>
+  </si>
+  <si>
+    <t>20129837</t>
+  </si>
+  <si>
+    <t>LARIST SPR.GRD 750ML</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>RT,(E-7H)</t>
-  </si>
-  <si>
-    <t>20097515</t>
-  </si>
-  <si>
-    <t>IDM POP CORN CRML 75</t>
-  </si>
-  <si>
-    <t>10008819</t>
-  </si>
-  <si>
-    <t>BANGO KECAP MNS 700G</t>
-  </si>
-  <si>
-    <t>RT,(E-0.5B)</t>
-  </si>
-  <si>
-    <t>20112491</t>
-  </si>
-  <si>
-    <t>SNLIGHT LIME PCH 910</t>
-  </si>
-  <si>
-    <t>PT</t>
-  </si>
-  <si>
-    <t>20129702</t>
-  </si>
-  <si>
-    <t>LERVIA SBN HONEY 400</t>
-  </si>
-  <si>
-    <t>20124726</t>
-  </si>
-  <si>
-    <t>IDM F/T 2PLY 3X180'S</t>
-  </si>
-  <si>
-    <t>20113567</t>
-  </si>
-  <si>
-    <t>GENTLE GEN MR.BRZ700</t>
+    <t>PT,(E-1B)</t>
+  </si>
+  <si>
+    <t>20128974</t>
+  </si>
+  <si>
+    <t>MONTISS FC TISUE200S</t>
+  </si>
+  <si>
+    <t>RT</t>
   </si>
 </sst>
 </file>
@@ -499,7 +496,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F10"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -600,21 +597,21 @@
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>3</v>
@@ -623,38 +620,38 @@
         <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>3</v>
@@ -663,30 +660,30 @@
         <v>12</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="E9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -700,33 +697,13 @@
         <v>3</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/PM1MKT.xlsx
+++ b/PM1MKT.xlsx
@@ -11,15 +11,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="32">
   <si>
     <t/>
   </si>
   <si>
-    <t>10036957</t>
-  </si>
-  <si>
-    <t>HAPPYTOS CHIP HJU140</t>
+    <t>20093135</t>
+  </si>
+  <si>
+    <t>BENG-BENG SHR IT 10S</t>
   </si>
   <si>
     <t>PM1MKT</t>
@@ -28,82 +28,85 @@
     <t>1</t>
   </si>
   <si>
+    <t>RT,(E-1B)</t>
+  </si>
+  <si>
+    <t>20035484</t>
+  </si>
+  <si>
+    <t>PUCUK/H TEH MLATI350</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>10004336</t>
+  </si>
+  <si>
+    <t>INDOMARET AIR MIN600</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>PT,(E-1H)</t>
+  </si>
+  <si>
+    <t>20126424</t>
+  </si>
+  <si>
+    <t>TARO SEAWEED 115G</t>
+  </si>
+  <si>
     <t>RT,(E-2B)</t>
   </si>
   <si>
-    <t>10003814</t>
-  </si>
-  <si>
-    <t>AQUA AIR MINERAL 600</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>RT,(E-3B)</t>
-  </si>
-  <si>
-    <t>20040383</t>
-  </si>
-  <si>
-    <t>NU MILK TEA 330ML</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>RT,(E-1B)</t>
-  </si>
-  <si>
-    <t>10036916</t>
-  </si>
-  <si>
-    <t>GLICO POCKY.STRAW 45</t>
-  </si>
-  <si>
-    <t>10008819</t>
-  </si>
-  <si>
-    <t>BANGO KECAP MNS 700G</t>
-  </si>
-  <si>
-    <t>RT,(E-0.5B)</t>
-  </si>
-  <si>
-    <t>20138899</t>
-  </si>
-  <si>
-    <t>SNSLK SHP G.BLCK 160</t>
+    <t>20128291</t>
+  </si>
+  <si>
+    <t>IDM KCG ALMD MADU 65</t>
+  </si>
+  <si>
+    <t>PT,(E-1B)</t>
+  </si>
+  <si>
+    <t>20131625</t>
+  </si>
+  <si>
+    <t>LARISST FCL.TIS 250S</t>
+  </si>
+  <si>
+    <t>PT,(E-4B)</t>
+  </si>
+  <si>
+    <t>20094283</t>
+  </si>
+  <si>
+    <t>INDOMILK KM PTH 535G</t>
+  </si>
+  <si>
+    <t>20104000</t>
+  </si>
+  <si>
+    <t>IDM KACANG ALMOND 65</t>
+  </si>
+  <si>
+    <t>20091352</t>
+  </si>
+  <si>
+    <t>DAIA+SOFT VIOLET 1.5</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>20041399</t>
+  </si>
+  <si>
+    <t>LIFEBUOY BW LMN 400</t>
   </si>
   <si>
     <t>PT,(E-3B)</t>
-  </si>
-  <si>
-    <t>20047217</t>
-  </si>
-  <si>
-    <t>PEPSODENT WHITE 225G</t>
-  </si>
-  <si>
-    <t>20129837</t>
-  </si>
-  <si>
-    <t>LARIST SPR.GRD 750ML</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>PT,(E-1B)</t>
-  </si>
-  <si>
-    <t>20128974</t>
-  </si>
-  <si>
-    <t>MONTISS FC TISUE200S</t>
-  </si>
-  <si>
-    <t>RT</t>
   </si>
 </sst>
 </file>
@@ -496,14 +499,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
     <col min="4" max="5" width="3" customWidth="1"/>
-    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -563,15 +566,15 @@
         <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>3</v>
@@ -580,18 +583,18 @@
         <v>4</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>3</v>
@@ -603,7 +606,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -637,7 +640,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>4</v>
@@ -657,13 +660,13 @@
         <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -677,33 +680,53 @@
         <v>3</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="E10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="B11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>30</v>
+      <c r="F11" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/PM1MKT.xlsx
+++ b/PM1MKT.xlsx
@@ -11,15 +11,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="32">
   <si>
     <t/>
   </si>
   <si>
-    <t>20093135</t>
-  </si>
-  <si>
-    <t>BENG-BENG SHR IT 10S</t>
+    <t>10003485</t>
+  </si>
+  <si>
+    <t>S/Q CHOCO ALMOND 52G</t>
   </si>
   <si>
     <t>PM1MKT</t>
@@ -31,82 +31,82 @@
     <t>RT,(E-1B)</t>
   </si>
   <si>
-    <t>20035484</t>
-  </si>
-  <si>
-    <t>PUCUK/H TEH MLATI350</t>
+    <t>10036987</t>
+  </si>
+  <si>
+    <t>S/Q CHOCO CASHEW 52G</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>10004336</t>
-  </si>
-  <si>
-    <t>INDOMARET AIR MIN600</t>
+    <t>10003814</t>
+  </si>
+  <si>
+    <t>AQUA AIR MINERAL 600</t>
+  </si>
+  <si>
+    <t>RT,(E-3B)</t>
+  </si>
+  <si>
+    <t>20040383</t>
+  </si>
+  <si>
+    <t>NU MILK TEA 330ML</t>
+  </si>
+  <si>
+    <t>20069527</t>
+  </si>
+  <si>
+    <t>NU TEH TARIK 330ML</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>PT,(E-1H)</t>
-  </si>
-  <si>
-    <t>20126424</t>
-  </si>
-  <si>
-    <t>TARO SEAWEED 115G</t>
+    <t>10014404</t>
+  </si>
+  <si>
+    <t>MILO HEALTY DRINK220</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
   <si>
     <t>RT,(E-2B)</t>
   </si>
   <si>
-    <t>20128291</t>
-  </si>
-  <si>
-    <t>IDM KCG ALMD MADU 65</t>
-  </si>
-  <si>
-    <t>PT,(E-1B)</t>
-  </si>
-  <si>
-    <t>20131625</t>
-  </si>
-  <si>
-    <t>LARISST FCL.TIS 250S</t>
-  </si>
-  <si>
-    <t>PT,(E-4B)</t>
-  </si>
-  <si>
-    <t>20094283</t>
-  </si>
-  <si>
-    <t>INDOMILK KM PTH 535G</t>
-  </si>
-  <si>
-    <t>20104000</t>
-  </si>
-  <si>
-    <t>IDM KACANG ALMOND 65</t>
-  </si>
-  <si>
-    <t>20091352</t>
-  </si>
-  <si>
-    <t>DAIA+SOFT VIOLET 1.5</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>20041399</t>
-  </si>
-  <si>
-    <t>LIFEBUOY BW LMN 400</t>
+    <t>20068536</t>
+  </si>
+  <si>
+    <t>REBO KUACI G.TEA 120</t>
+  </si>
+  <si>
+    <t>20098334</t>
+  </si>
+  <si>
+    <t>REBO KUACI CRM 120G</t>
+  </si>
+  <si>
+    <t>20092331</t>
+  </si>
+  <si>
+    <t>EKONOMI LIQ JR.NP650</t>
+  </si>
+  <si>
+    <t>20011008</t>
+  </si>
+  <si>
+    <t>LIFEBUOY BW RED 400</t>
   </si>
   <si>
     <t>PT,(E-3B)</t>
+  </si>
+  <si>
+    <t>20040194</t>
+  </si>
+  <si>
+    <t>GRNR BC FWS.VT.C100</t>
   </si>
 </sst>
 </file>
@@ -499,7 +499,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -580,21 +580,21 @@
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>3</v>
@@ -603,18 +603,18 @@
         <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>3</v>
@@ -623,47 +623,47 @@
         <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>5</v>
@@ -671,36 +671,36 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="C9" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="C10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>4</v>
@@ -711,22 +711,42 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>31</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
